--- a/biology/Botanique/Entada/Entada.xlsx
+++ b/biology/Botanique/Entada/Entada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Entada contient une trentaine d'espèces d'arbres, d'arbustes ou de lianes de la famille des Mimosaceae ou des Fabaceae (sous-famille des Mimosoideae), dont l'espèce type est Entada rheedei Spreng..
 On en connaît 21 espèces originaires d'Afrique, 6 d'Asie, 2 d'Amérique tropicale et une à la répartition cosmopolite.
-Il s'agit de la seule Mimosoïde lianescente dépourvue d'épines et de glandes foliaires. Elle ressemble au genre Senna (Caesalpinioideae) à l'exception des feuilles bipennées[2].
+Il s'agit de la seule Mimosoïde lianescente dépourvue d'épines et de glandes foliaires. Elle ressemble au genre Senna (Caesalpinioideae) à l'exception des feuilles bipennées.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Sélection d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Entada abyssinica Steudel ex A. Rich.
 Entada africana
@@ -554,9 +568,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (30 juin 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (30 juin 2022) :
 Entada abyssinica Steud.
 Entada abyssinica Steud. ex A.Rich.
 Entada africana Guill. &amp; Perr.
